--- a/spreadsheets/new/GSE90806.0.xlsx
+++ b/spreadsheets/new/GSE90806.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1412B-E9ED-A54A-9941-551E6A808471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28980" windowHeight="16800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1001">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3022,13 +3028,16 @@
   </si>
   <si>
     <t>Arcuate-Median Eminence</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3065,6 +3074,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3111,7 +3128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3143,9 +3160,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3177,6 +3212,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3352,75 +3405,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="87.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3599,7 +3648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -3778,7 +3827,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -3936,7 +3985,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4115,12 +4164,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4140,7 +4189,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -4160,7 +4209,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -4180,7 +4229,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -4200,7 +4249,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -4220,7 +4269,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -4240,7 +4289,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -4260,7 +4309,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -4280,7 +4329,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -4300,7 +4349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -4320,7 +4369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -4340,7 +4389,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -4360,7 +4409,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -4380,7 +4429,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>262</v>
       </c>
@@ -4400,7 +4449,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>266</v>
       </c>
@@ -4420,7 +4469,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -4440,7 +4489,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -4460,7 +4509,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>278</v>
       </c>
@@ -4480,7 +4529,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -4500,7 +4549,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>286</v>
       </c>
@@ -4520,7 +4569,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>290</v>
       </c>
@@ -4540,7 +4589,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -4560,7 +4609,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>298</v>
       </c>
@@ -4580,7 +4629,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>302</v>
       </c>
@@ -4600,7 +4649,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>306</v>
       </c>
@@ -4626,93 +4675,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>310</v>
       </c>
@@ -4945,7 +4992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -5178,7 +5225,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -5393,7 +5440,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>414</v>
       </c>
@@ -5626,12 +5673,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>475</v>
       </c>
@@ -5660,67 +5707,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>481</v>
       </c>
@@ -5875,7 +5920,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -6030,7 +6075,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -6179,7 +6224,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>582</v>
       </c>
@@ -6334,12 +6379,12 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>633</v>
       </c>
@@ -6356,25 +6401,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="113.7109375" customWidth="1"/>
-    <col min="4" max="4" width="189.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="113.6640625" customWidth="1"/>
+    <col min="4" max="4" width="189.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>636</v>
       </c>
@@ -6403,7 +6447,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>645</v>
       </c>
@@ -6432,7 +6476,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>654</v>
       </c>
@@ -6461,7 +6505,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>663</v>
       </c>
@@ -6490,12 +6534,12 @@
         <v>671</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>672</v>
       </c>
@@ -6521,28 +6565,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>678</v>
       </c>
@@ -6580,7 +6624,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>690</v>
       </c>
@@ -6618,7 +6662,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>700</v>
       </c>
@@ -6656,7 +6700,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>711</v>
       </c>
@@ -6694,12 +6738,12 @@
         <v>722</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>723</v>
       </c>
@@ -6725,21 +6769,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>729</v>
       </c>
@@ -6756,7 +6800,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>733</v>
       </c>
@@ -6773,7 +6817,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>738</v>
       </c>
@@ -6790,7 +6834,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>743</v>
       </c>
@@ -6807,12 +6851,12 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>748</v>
       </c>
@@ -6823,46 +6867,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>749</v>
       </c>
@@ -6954,7 +6996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>761</v>
       </c>
@@ -7046,7 +7088,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>770</v>
       </c>
@@ -7126,7 +7168,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>780</v>
       </c>
@@ -7218,12 +7260,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>792</v>
       </c>
@@ -7246,7 +7288,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>797</v>
       </c>
@@ -7269,7 +7311,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>799</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>801</v>
       </c>
@@ -7315,7 +7357,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>803</v>
       </c>
@@ -7338,7 +7380,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>805</v>
       </c>
@@ -7361,7 +7403,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>807</v>
       </c>
@@ -7384,7 +7426,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>809</v>
       </c>
@@ -7407,7 +7449,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>811</v>
       </c>
@@ -7430,7 +7472,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>813</v>
       </c>
@@ -7453,7 +7495,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>815</v>
       </c>
@@ -7476,7 +7518,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>817</v>
       </c>
@@ -7499,7 +7541,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>819</v>
       </c>
@@ -7522,7 +7564,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>821</v>
       </c>
@@ -7545,7 +7587,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>823</v>
       </c>
@@ -7568,7 +7610,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>825</v>
       </c>
@@ -7591,7 +7633,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>827</v>
       </c>
@@ -7614,7 +7656,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>829</v>
       </c>
@@ -7637,7 +7679,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>831</v>
       </c>
@@ -7660,7 +7702,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>833</v>
       </c>
@@ -7683,7 +7725,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>835</v>
       </c>
@@ -7706,7 +7748,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>837</v>
       </c>
@@ -7729,7 +7771,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>839</v>
       </c>
@@ -7752,7 +7794,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>841</v>
       </c>
@@ -7775,7 +7817,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>843</v>
       </c>
@@ -7804,34 +7846,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>760</v>
       </c>
@@ -7887,7 +7931,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7943,7 +7987,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -7993,7 +8037,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>791</v>
       </c>
@@ -8049,12 +8093,12 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>796</v>
       </c>
@@ -8063,6 +8107,9 @@
       </c>
       <c r="G6" t="s">
         <v>892</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -8071,76 +8118,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -8322,7 +8366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -8504,7 +8548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -8665,7 +8709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -8847,12 +8891,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
